--- a/src/main/resources/xlsx/sc/sc_subsidy_fe.xlsx
+++ b/src/main/resources/xlsx/sc/sc_subsidy_fe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\干部选拔\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7E1A550C-F3DB-4C4D-9888-51CFB79464E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D398B8-69A7-4749-A0CD-C669EF11C4E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,60 +510,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="8191" r="8503" b="31301"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6065520" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,22 +777,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:J29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="10" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1"/>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1"/>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1"/>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -860,7 +806,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="6.6" customHeight="1" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -872,7 +818,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="21.6" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -884,7 +830,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="48.6" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
@@ -898,7 +844,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -910,7 +856,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="27" t="s">
         <v>19</v>
       </c>
@@ -924,7 +870,7 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="45.6" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>20</v>
       </c>
@@ -938,7 +884,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="27.6" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
@@ -952,9 +898,9 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="22.9" customHeight="1"/>
+    <row r="16" spans="1:10" ht="22.9" customHeight="1"/>
+    <row r="17" spans="1:10" ht="26.45" customHeight="1">
       <c r="G17" s="22" t="s">
         <v>16</v>
       </c>
@@ -962,7 +908,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="26.45" customHeight="1">
       <c r="G18" s="23" t="s">
         <v>17</v>
       </c>
@@ -970,14 +916,14 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="22.9" customHeight="1"/>
+    <row r="20" spans="1:10" ht="22.9" customHeight="1"/>
+    <row r="21" spans="1:10" ht="22.9" customHeight="1"/>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1"/>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1"/>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1"/>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1"/>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -989,7 +935,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +949,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1016,7 +962,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1">
       <c r="E29" s="20" t="s">
         <v>13</v>
       </c>
@@ -1026,8 +972,8 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1"/>
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A27:J27"/>
@@ -1046,7 +992,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1058,7 +1003,7 @@
       <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="23.45" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.375" customWidth="1" collapsed="1"/>
@@ -1070,7 +1015,7 @@
     <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="31.9" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1087,7 +1032,7 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1102,7 +1047,7 @@
       </c>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="31.9" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="32" t="s">
         <v>10</v>
@@ -1113,7 +1058,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="31.9" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1130,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1139,7 +1084,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1148,7 +1093,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1157,7 +1102,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1197,7 +1142,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="23.45" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.375" style="1" customWidth="1" collapsed="1"/>
@@ -1210,7 +1155,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="31.9" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1172,7 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="31.9" customHeight="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1242,7 +1187,7 @@
       </c>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="31.9" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="32" t="s">
         <v>10</v>
@@ -1253,7 +1198,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="31.9" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
@@ -1270,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="31.9" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1279,7 +1224,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="31.9" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1288,7 +1233,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="31.9" customHeight="1">
       <c r="A7" s="30"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1297,7 +1242,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="31.9" customHeight="1" thickBot="1">
       <c r="A8" s="31"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
